--- a/src/test/resources/cases_v8.xlsx
+++ b/src/test/resources/cases_v8.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!$A$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:D11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -369,12 +368,6 @@
     <t>${toBeRegisterMobilephone}</t>
   </si>
   <si>
-    <t>com.lemon.interf.generator.MobileGenerator</t>
-  </si>
-  <si>
-    <t>toBeRegisterMobilephone</t>
-  </si>
-  <si>
     <t>不合格的手机号</t>
   </si>
   <si>
@@ -406,19 +399,21 @@
   </si>
   <si>
     <t>${wrongPassword}</t>
+  </si>
+  <si>
+    <t>com.yj.util.MobilePhoneGenerator</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>toBeRegisterMobilePhone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,150 +436,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -596,202 +447,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -799,251 +470,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1096,57 +525,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1436,23 +824,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.2166666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="77.2166666666667" customWidth="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1480,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1494,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1508,7 +895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1522,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1536,7 +923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1550,7 +937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1564,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1578,7 +965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1592,7 +979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1606,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1620,7 +1007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1634,7 +1021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1649,34 +1036,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.1083333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="81.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="79.1083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="79.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="91" customWidth="1"/>
-    <col min="6" max="6" width="38.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="42.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="39.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="38.625" customWidth="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="39.25" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -1705,7 +1091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1" spans="1:4">
+    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1719,7 +1105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1733,7 +1119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1747,7 +1133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1761,7 +1147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:8">
+    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1781,7 +1167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1795,7 +1181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1809,7 +1195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1823,7 +1209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1837,7 +1223,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1851,7 +1237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1865,7 +1251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1879,7 +1265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1893,7 +1279,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1907,7 +1293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1921,7 +1307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1935,7 +1321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1949,7 +1335,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1963,7 +1349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1977,7 +1363,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" ht="135" spans="1:8">
+    <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1999,31 +1385,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1083333333333" customWidth="1"/>
-    <col min="2" max="2" width="30.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="44.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="27.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -2040,7 +1425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -2048,72 +1433,72 @@
         <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C3">
         <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C5">
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>12345</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>1234567</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/src/test/resources/cases_v8.xlsx
+++ b/src/test/resources/cases_v8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9405" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>list</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/list</t>
@@ -321,22 +318,13 @@
     <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"-1"}</t>
   </si>
   <si>
-    <t>{"status":"0","code":"20117",data:null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
-  </si>
-  <si>
     <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"510000"}</t>
   </si>
   <si>
-    <t>{"status":"0","code":"20117",data:null,"msg":"请输入范围在0到51万之间的正数金额"}</t>
-  </si>
-  <si>
     <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"10000.001"}</t>
   </si>
   <si>
     <t>{"status":"0","code":"20116",data:null,"msg":"输入金额的小数不能超过两位"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"10000"}</t>
   </si>
   <si>
     <t>{"status":"1","code":"10001",data:null,"msg":"充值成功"}</t>
@@ -406,6 +394,94 @@
   </si>
   <si>
     <t>toBeRegisterMobilePhone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"10000"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"0.01"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"50000"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"500001"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"100.001"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"amount":"100.001"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${toBeRegisterMobilephone}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"0","code":"20117",data:null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${toBeRegisterMobilephone}","amount":"-1"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"0","code":"20117",data:null,"msg":"请输入范围在0到51万之间的正数金额"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资竞标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"0","code":"20119",data:null,"msg":"余额不足， 请修改提现额度"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"0","code":"10001",data:null,"msg":"成功"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"0","code":"20116",data:null,"msg":"输入金额的金额小数不能超过两位"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"0","code":"20103",data:null,"msg":"参数错误： 参数不能为空"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":"0","code":"20115",data:null,"msg":"输入金额"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -825,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -839,7 +915,7 @@
     <col min="4" max="4" width="77.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -853,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -866,8 +942,11 @@
       <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -880,8 +959,11 @@
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -894,8 +976,11 @@
       <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -908,8 +993,11 @@
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -917,122 +1005,128 @@
         <v>13</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1043,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1064,31 +1158,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1099,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1113,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1127,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1141,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -1155,16 +1249,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1175,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1189,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1203,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1217,10 +1311,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1231,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1245,10 +1339,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1259,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1273,10 +1367,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1287,10 +1381,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1301,10 +1395,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1315,10 +1409,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1329,10 +1423,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1343,10 +1437,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1357,10 +1451,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.15">
@@ -1371,17 +1465,140 @@
         <v>3</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1410,41 +1627,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>123456789</v>
@@ -1452,24 +1669,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>123456</v>
@@ -1477,10 +1694,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>12345</v>
@@ -1488,10 +1705,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>1234567</v>
